--- a/models/Neuroscience/CERE.xlsx
+++ b/models/Neuroscience/CERE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Investing\models\Neuroscience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3FE60C-3160-48CF-8B11-92626ED78060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0668A1FD-5C77-42EC-B4C7-DC7D4FECA46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22560" yWindow="1310" windowWidth="14800" windowHeight="19090" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9970" yWindow="1260" windowWidth="22740" windowHeight="19090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -404,7 +404,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -412,11 +411,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -705,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -755,7 +753,7 @@
       <c r="D6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="17" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -775,20 +773,19 @@
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
+      <c r="H7" s="10"/>
       <c r="O7" t="s">
         <v>2</v>
       </c>
@@ -799,20 +796,19 @@
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B8" s="9"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
+      <c r="H8" s="10"/>
       <c r="O8" t="s">
         <v>3</v>
       </c>
@@ -826,20 +822,19 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B9" s="9"/>
-      <c r="C9" s="10" t="s">
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
+      <c r="H9" s="10"/>
       <c r="O9" t="s">
         <v>4</v>
       </c>
@@ -853,20 +848,19 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B10" s="9"/>
-      <c r="C10" s="10" t="s">
+      <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
+      <c r="H10" s="10"/>
       <c r="O10" t="s">
         <v>5</v>
       </c>
@@ -876,30 +870,30 @@
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B13" s="6"/>
@@ -909,7 +903,7 @@
       <c r="D13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="17" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
@@ -920,54 +914,52 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B14" s="9"/>
-      <c r="C14" s="18" t="s">
+      <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B15" s="9"/>
-      <c r="C15" s="18" t="s">
+      <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B16" s="12"/>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -978,7 +970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3B0A1A-D503-48EC-8C90-983FD41F4486}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
